--- a/Pre Research Works/unit_co_ma.xlsx
+++ b/Pre Research Works/unit_co_ma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Matched Assessments</t>
+          <t>Verbs</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Assessments</t>
         </is>
       </c>
     </row>
@@ -502,7 +507,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']</t>
+          <t>['apply','solve']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate </t>
         </is>
       </c>
     </row>
@@ -538,7 +548,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []</t>
+          <t>['develop']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate </t>
         </is>
       </c>
     </row>
@@ -574,7 +589,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']</t>
+          <t>['understand']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate </t>
         </is>
       </c>
     </row>
@@ -610,7 +630,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []</t>
+          <t>['develop']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate </t>
         </is>
       </c>
     </row>
@@ -644,7 +669,16 @@
       <c r="G6" t="n">
         <v>0.6822268245187914</v>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['develop']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Pre Research Works/unit_co_ma.xlsx
+++ b/Pre Research Works/unit_co_ma.xlsx
@@ -1,138 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajan\OneDrive\Documents\Research_Project\Pre Research Works\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875C5E92-2837-4CDB-BCC1-9594BB7AB42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Teaching Hours</t>
-  </si>
-  <si>
-    <t>Course Outcomes</t>
-  </si>
-  <si>
-    <t>Similarity Score</t>
-  </si>
-  <si>
-    <t>Matched Assessments</t>
-  </si>
-  <si>
-    <t>Unit 1</t>
-  </si>
-  <si>
-    <t>introduction to digital image and video processing</t>
-  </si>
-  <si>
-    <t>Digital image representation, Sampling and Quantization, Types of Images, Basic Relations between Pixels - Neighbors, Connectivity, Distance Measures between pixels, Introduction to Digital Video, Sampled Video, Video Transmission. Gray-Level Processing: Image Histogram, Linear and Non-linear point operations on Images, Image Thresholding, Region labelling, Binary Image Morphology.</t>
-  </si>
-  <si>
-    <t>apply the image and video analysis approaches to solve real world problems</t>
-  </si>
-  <si>
-    <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']</t>
-  </si>
-  <si>
-    <t>Unit 2</t>
-  </si>
-  <si>
-    <t>image and video enhancement and restoration</t>
-  </si>
-  <si>
-    <t>Spatial domain-Linear and Non-linear Filtering, Introduction to Fourier Transform and the frequency Domain– Filtering in Frequency domain, A model of The Image Degradation /Restoration, Noise Models and basic methods for image restoration.</t>
-  </si>
-  <si>
-    <t>develop proficiency in image enhancement and segmentation</t>
-  </si>
-  <si>
-    <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []</t>
-  </si>
-  <si>
-    <t>Unit 3</t>
-  </si>
-  <si>
-    <t>image and video compression</t>
-  </si>
-  <si>
-    <t>Fundamentals of Image Compression: Huffman Coding, Run length Coding, LZW Coding, Bit plane coding. Video Compression: Basic Concepts and Techniques of Video compression, MPEG-1 and MPEG-2 Video Standards.</t>
-  </si>
-  <si>
-    <t>understand the fundamental principles of image and video analysis</t>
-  </si>
-  <si>
-    <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']</t>
-  </si>
-  <si>
-    <t>Unit 4</t>
-  </si>
-  <si>
-    <t>feature detection and description</t>
-  </si>
-  <si>
-    <t>Introduction to feature detectors, Point, line and edge detection, Image Segmentation - Region Based Segmentation – Region Growing and Region Splitting and Merging, Thresholding – Basic global thresholding, optimum global thresholding using Otsu’s Method.</t>
-  </si>
-  <si>
-    <t>develop skills in object detection and recognition</t>
-  </si>
-  <si>
-    <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []</t>
-  </si>
-  <si>
-    <t>Unit 5</t>
-  </si>
-  <si>
-    <t>object detection and recognition</t>
-  </si>
-  <si>
-    <t>Descriptors: Boundary descriptors - Fourier descriptors - Regional descriptors Object detection and recognition in image and video: Minimum distance classifier, Applications in image and video analysis, object tracking in videos.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -147,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -471,167 +420,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="6" max="6" width="43.73046875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Topic</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Teaching Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course Outcomes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Similarity Score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Verbs</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Assessments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Unit 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>introduction to digital image and video processing</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Digital image representation, Sampling and Quantization, Types of Images, Basic Relations between Pixels - Neighbors, Connectivity, Distance Measures between pixels, Introduction to Digital Video, Sampled Video, Video Transmission. Gray-Level Processing: Image Histogram, Linear and Non-linear point operations on Images, Image Thresholding, Region labelling, Binary Image Morphology.</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>apply the image and video analysis approaches to solve real world problems</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2325973172734696</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>applysolve</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Unit 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>image and video enhancement and restoration</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Spatial domain-Linear and Non-linear Filtering, Introduction to Fourier Transform and the frequency Domain– Filtering in Frequency domain, A model of The Image Degradation /Restoration, Noise Models and basic methods for image restoration.</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>develop proficiency in image enhancement and segmentation</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3509950511201284</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>develop</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Unit 3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>image and video compression</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fundamentals of Image Compression: Huffman Coding, Run length Coding, LZW Coding, Bit plane coding. Video Compression: Basic Concepts and Techniques of Video compression, MPEG-1 and MPEG-2 Video Standards.</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>understand the fundamental principles of image and video analysis</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2286463650054271</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>understand</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unit 4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>feature detection and description</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Introduction to feature detectors, Point, line and edge detection, Image Segmentation - Region Based Segmentation – Region Growing and Region Splitting and Merging, Thresholding – Basic global thresholding, optimum global thresholding using Otsu’s Method.</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>develop skills in object detection and recognition</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1964929852033372</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>develop</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unit 5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>object detection and recognition</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Descriptors: Boundary descriptors - Fourier descriptors - Regional descriptors Object detection and recognition in image and video: Minimum distance classifier, Applications in image and video analysis, object tracking in videos.</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>0.23259731727346961</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>0.35099505112012841</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>0.22864636500542709</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>0.19649298520333719</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6">
-        <v>0.68222682451879135</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>develop skills in object detection and recognition</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6822268245187914</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>develop</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']"]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Pre Research Works/unit_co_ma.xlsx
+++ b/Pre Research Works/unit_co_ma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajan\OneDrive\Documents\Research_Project\Pre Research Works\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875C5E92-2837-4CDB-BCC1-9594BB7AB42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC966FC-3909-4EED-BB39-9E6D369AADB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -482,6 +482,7 @@
   <cols>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="6" max="6" width="43.73046875" customWidth="1"/>
+    <col min="7" max="7" width="24.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">

--- a/Pre Research Works/unit_co_ma.xlsx
+++ b/Pre Research Works/unit_co_ma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajan\OneDrive\Documents\Research_Project\Pre Research Works\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC966FC-3909-4EED-BB39-9E6D369AADB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253ED099-88DC-470F-8479-484D04AA32E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Unit</t>
   </si>
@@ -40,7 +40,10 @@
     <t>Similarity Score</t>
   </si>
   <si>
-    <t>Matched Assessments</t>
+    <t>Verbs</t>
+  </si>
+  <si>
+    <t>Assessments</t>
   </si>
   <si>
     <t>Unit 1</t>
@@ -55,7 +58,10 @@
     <t>apply the image and video analysis approaches to solve real world problems</t>
   </si>
   <si>
-    <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']</t>
+    <t>applysolve</t>
+  </si>
+  <si>
+    <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']"]</t>
   </si>
   <si>
     <t>Unit 2</t>
@@ -70,7 +76,10 @@
     <t>develop proficiency in image enhancement and segmentation</t>
   </si>
   <si>
-    <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []</t>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
   </si>
   <si>
     <t>Unit 3</t>
@@ -85,7 +94,10 @@
     <t>understand the fundamental principles of image and video analysis</t>
   </si>
   <si>
-    <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']</t>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
   </si>
   <si>
     <t>Unit 4</t>
@@ -98,9 +110,6 @@
   </si>
   <si>
     <t>develop skills in object detection and recognition</t>
-  </si>
-  <si>
-    <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []</t>
   </si>
   <si>
     <t>Unit 5</t>
@@ -165,10 +174,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,20 +484,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="6" max="6" width="43.73046875" customWidth="1"/>
-    <col min="7" max="7" width="24.73046875" customWidth="1"/>
+    <col min="9" max="9" width="84.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,132 +518,153 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2">
         <v>0.23259731727346961</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2">
         <v>0.35099505112012841</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2">
         <v>0.22864636500542709</v>
       </c>
-      <c r="H4" t="s">
-        <v>21</v>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2">
         <v>0.19649298520333719</v>
       </c>
-      <c r="H5" t="s">
-        <v>26</v>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>0.68222682451879135</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Pre Research Works/unit_co_ma.xlsx
+++ b/Pre Research Works/unit_co_ma.xlsx
@@ -1,147 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajan\OneDrive\Documents\Research_Project\Pre Research Works\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253ED099-88DC-470F-8479-484D04AA32E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Teaching Hours</t>
-  </si>
-  <si>
-    <t>Course Outcomes</t>
-  </si>
-  <si>
-    <t>Similarity Score</t>
-  </si>
-  <si>
-    <t>Verbs</t>
-  </si>
-  <si>
-    <t>Assessments</t>
-  </si>
-  <si>
-    <t>Unit 1</t>
-  </si>
-  <si>
-    <t>introduction to digital image and video processing</t>
-  </si>
-  <si>
-    <t>Digital image representation, Sampling and Quantization, Types of Images, Basic Relations between Pixels - Neighbors, Connectivity, Distance Measures between pixels, Introduction to Digital Video, Sampled Video, Video Transmission. Gray-Level Processing: Image Histogram, Linear and Non-linear point operations on Images, Image Thresholding, Region labelling, Binary Image Morphology.</t>
-  </si>
-  <si>
-    <t>apply the image and video analysis approaches to solve real world problems</t>
-  </si>
-  <si>
-    <t>applysolve</t>
-  </si>
-  <si>
-    <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']"]</t>
-  </si>
-  <si>
-    <t>Unit 2</t>
-  </si>
-  <si>
-    <t>image and video enhancement and restoration</t>
-  </si>
-  <si>
-    <t>Spatial domain-Linear and Non-linear Filtering, Introduction to Fourier Transform and the frequency Domain– Filtering in Frequency domain, A model of The Image Degradation /Restoration, Noise Models and basic methods for image restoration.</t>
-  </si>
-  <si>
-    <t>develop proficiency in image enhancement and segmentation</t>
-  </si>
-  <si>
-    <t>develop</t>
-  </si>
-  <si>
-    <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
-  </si>
-  <si>
-    <t>Unit 3</t>
-  </si>
-  <si>
-    <t>image and video compression</t>
-  </si>
-  <si>
-    <t>Fundamentals of Image Compression: Huffman Coding, Run length Coding, LZW Coding, Bit plane coding. Video Compression: Basic Concepts and Techniques of Video compression, MPEG-1 and MPEG-2 Video Standards.</t>
-  </si>
-  <si>
-    <t>understand the fundamental principles of image and video analysis</t>
-  </si>
-  <si>
-    <t>understand</t>
-  </si>
-  <si>
-    <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
-  </si>
-  <si>
-    <t>Unit 4</t>
-  </si>
-  <si>
-    <t>feature detection and description</t>
-  </si>
-  <si>
-    <t>Introduction to feature detectors, Point, line and edge detection, Image Segmentation - Region Based Segmentation – Region Growing and Region Splitting and Merging, Thresholding – Basic global thresholding, optimum global thresholding using Otsu’s Method.</t>
-  </si>
-  <si>
-    <t>develop skills in object detection and recognition</t>
-  </si>
-  <si>
-    <t>Unit 5</t>
-  </si>
-  <si>
-    <t>object detection and recognition</t>
-  </si>
-  <si>
-    <t>Descriptors: Boundary descriptors - Fourier descriptors - Regional descriptors Object detection and recognition in image and video: Minimum distance classifier, Applications in image and video analysis, object tracking in videos.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -156,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -483,188 +420,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="9" max="9" width="84.06640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Topic</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Teaching Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course Outcomes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Similarity Score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Verbs</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Assessments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Unit 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>introduction to digital image and video processing</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Digital image representation, Sampling and Quantization, Types of Images, Basic Relations between Pixels - Neighbors, Connectivity, Distance Measures between pixels, Introduction to Digital Video, Sampled Video, Video Transmission. Gray-Level Processing: Image Histogram, Linear and Non-linear point operations on Images, Image Thresholding, Region labelling, Binary Image Morphology.</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>apply the image and video analysis approaches to solve real world problems</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2325973172734696</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>applysolve</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Unit 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>image and video enhancement and restoration</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Spatial domain-Linear and Non-linear Filtering, Introduction to Fourier Transform and the frequency Domain– Filtering in Frequency domain, A model of The Image Degradation /Restoration, Noise Models and basic methods for image restoration.</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>develop proficiency in image enhancement and segmentation</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3509950511201284</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>develop</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Unit 3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>image and video compression</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fundamentals of Image Compression: Huffman Coding, Run length Coding, LZW Coding, Bit plane coding. Video Compression: Basic Concepts and Techniques of Video compression, MPEG-1 and MPEG-2 Video Standards.</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>understand the fundamental principles of image and video analysis</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2286463650054271</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>understand</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unit 4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>feature detection and description</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Introduction to feature detectors, Point, line and edge detection, Image Segmentation - Region Based Segmentation – Region Growing and Region Splitting and Merging, Thresholding – Basic global thresholding, optimum global thresholding using Otsu’s Method.</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>develop skills in object detection and recognition</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1964929852033372</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>develop</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unit 5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>object detection and recognition</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Descriptors: Boundary descriptors - Fourier descriptors - Regional descriptors Object detection and recognition in image and video: Minimum distance classifier, Applications in image and video analysis, object tracking in videos.</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.23259731727346961</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.35099505112012841</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.22864636500542709</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.19649298520333719</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.68222682451879135</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>19</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>develop skills in object detection and recognition</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6822268245187914</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>develop</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']"]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Pre Research Works/unit_co_ma.xlsx
+++ b/Pre Research Works/unit_co_ma.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []"]</t>
         </is>
       </c>
     </row>

--- a/Pre Research Works/unit_co_ma.xlsx
+++ b/Pre Research Works/unit_co_ma.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']"]</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
         </is>
       </c>
     </row>

--- a/Pre Research Works/unit_co_ma.xlsx
+++ b/Pre Research Works/unit_co_ma.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []"]</t>
         </is>
       </c>
     </row>

--- a/Pre Research Works/unit_co_ma.xlsx
+++ b/Pre Research Works/unit_co_ma.xlsx
@@ -486,33 +486,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>introduction to digital image and video processing</t>
+          <t>introduction</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Digital image representation, Sampling and Quantization, Types of Images, Basic Relations between Pixels - Neighbors, Connectivity, Distance Measures between pixels, Introduction to Digital Video, Sampled Video, Video Transmission. Gray-Level Processing: Image Histogram, Linear and Non-linear point operations on Images, Image Thresholding, Region labelling, Binary Image Morphology.</t>
+          <t>Concepts of Data Analytics: Descriptive, Diagnostic, Predictive, Prescriptive analytics - Big Data characteristics: Volume, Velocity, Variety, Veracity of data - Types of data: Structured, Unstructured, Semi-Structured, Metadata - Introduction to Hadoop Scaling - Distributed Framework -Hadoop v/s RDBMS-Brief history of Hadoop.</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>apply the image and video analysis approaches to solve real world problems</t>
+          <t>understand the big data concepts in real time scenario</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.2325973172734696</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>applysolve</t>
+          <t>understand</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
         </is>
       </c>
     </row>
@@ -527,33 +527,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>image and video enhancement and restoration</t>
+          <t>big data architecture</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Spatial domain-Linear and Non-linear Filtering, Introduction to Fourier Transform and the frequency Domain– Filtering in Frequency domain, A model of The Image Degradation /Restoration, Noise Models and basic methods for image restoration.</t>
+          <t>Standard Big data architecture - Big data application - Hadoop framework - HDFS Design goal - Master Slave architecture - Block System - Read-write Process for data - Installing HDFS - Executing in HDFS: Reading and writing Local files and Data streams into HDFS - Types of files in HDFS - Strengths and alternatives of HDFS - Concept of YARN. Apache Hadoop Moving Data in and out of Hadoop Understanding inputs and outputs of MapReduce - Problems with traditional large-scale systems-Requirements for a new approach.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>develop proficiency in image enhancement and segmentation</t>
+          <t>analyze the big data under spark architecture</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.3509950511201284</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>develop</t>
-        </is>
-      </c>
+        <v>0.5268136892435387</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -568,33 +564,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>image and video compression</t>
+          <t>parallel processing with mapreduce</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fundamentals of Image Compression: Huffman Coding, Run length Coding, LZW Coding, Bit plane coding. Video Compression: Basic Concepts and Techniques of Video compression, MPEG-1 and MPEG-2 Video Standards.</t>
+          <t>Introduction to MapReduce - Sample MapReduce application: Wordcount - MapReduce Data types and Formats - Writing MapReduce Programming - Testing MapReduce Programs - MapReduce Job Execution - Shuffle and Sort - Managing Failures - Progress and Status Updates. MapReduce Programs: Using languages other than Java with Hadoop, Analyzing a large dataset.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>understand the fundamental principles of image and video analysis</t>
+          <t>demonstrate an ability to use hadoop framework for processing big data for analytics</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.2286463650054271</v>
+        <v>0.08574466264484321</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>understand</t>
+          <t>demonstrateuseprocessing</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []"]</t>
         </is>
       </c>
     </row>
@@ -609,33 +605,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>feature detection and description</t>
+          <t>hive and pig</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Introduction to feature detectors, Point, line and edge detection, Image Segmentation - Region Based Segmentation – Region Growing and Region Splitting and Merging, Thresholding – Basic global thresholding, optimum global thresholding using Otsu’s Method.</t>
+          <t>Hive Architecture - Components - Data Definition - Partitioning - Data Manipulation - Joins, Views and Indexes - Hive Execution - Pig Architecture - Pig Latin Data Model - Latin Operators - Loading Data - Diagnostic Operators - Group Operators - Pig Joins - Row Level Operators - Pig Built-in function - User defined functions - Pig Scripts.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>develop skills in object detection and recognition</t>
+          <t>demonstrate the programming of big data using hive and pig environments</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.1964929852033372</v>
+        <v>0.5247991960469408</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>develop</t>
+          <t>demonstrateusing</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []"]</t>
         </is>
       </c>
     </row>
@@ -650,33 +646,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>object detection and recognition</t>
+          <t>stream processing with spark</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Descriptors: Boundary descriptors - Fourier descriptors - Regional descriptors Object detection and recognition in image and video: Minimum distance classifier, Applications in image and video analysis, object tracking in videos.</t>
+          <t>Stream processing Models and Tools - Apache Spark - Spark Architecture: Resilient Distributed Datasets, Directed Acyclic Graph - Spark Ecosystem - Spark for Big Data Processing: MLlib, Spark GraphX, SparkR, SparkSQL, Spark Streaming - Spark versus Hadoop . PySpark + NumPy + SciPy, Code Optimization.</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>develop skills in object detection and recognition</t>
+          <t>analyze the big data under spark architecture</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.6822268245187914</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>develop</t>
-        </is>
-      </c>
+        <v>0.1959902092143908</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>

--- a/Pre Research Works/unit_co_ma.xlsx
+++ b/Pre Research Works/unit_co_ma.xlsx
@@ -590,7 +590,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']"]</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
         </is>
       </c>
     </row>

--- a/Pre Research Works/unit_co_ma.xlsx
+++ b/Pre Research Works/unit_co_ma.xlsx
@@ -486,33 +486,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>introduction</t>
+          <t>introduction to digital image and video processing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Concepts of Data Analytics: Descriptive, Diagnostic, Predictive, Prescriptive analytics - Big Data characteristics: Volume, Velocity, Variety, Veracity of data - Types of data: Structured, Unstructured, Semi-Structured, Metadata - Introduction to Hadoop Scaling - Distributed Framework -Hadoop v/s RDBMS-Brief history of Hadoop.</t>
+          <t>Digital image representation, Sampling and Quantization, Types of Images, Basic Relations between Pixels - Neighbors, Connectivity, Distance Measures between pixels, Introduction to Digital Video, Sampled Video, Video Transmission. Gray-Level Processing: Image Histogram, Linear and Non-linear point operations on Images, Image Thresholding, Region labelling, Binary Image Morphology.</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>understand the big data concepts in real time scenario</t>
+          <t>apply the image and video analysis approaches to solve real world problems</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.2325973172734696</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>understand</t>
+          <t>applysolve</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -527,26 +527,30 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>big data architecture</t>
+          <t>image and video enhancement and restoration</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Standard Big data architecture - Big data application - Hadoop framework - HDFS Design goal - Master Slave architecture - Block System - Read-write Process for data - Installing HDFS - Executing in HDFS: Reading and writing Local files and Data streams into HDFS - Types of files in HDFS - Strengths and alternatives of HDFS - Concept of YARN. Apache Hadoop Moving Data in and out of Hadoop Understanding inputs and outputs of MapReduce - Problems with traditional large-scale systems-Requirements for a new approach.</t>
+          <t>Spatial domain-Linear and Non-linear Filtering, Introduction to Fourier Transform and the frequency Domain– Filtering in Frequency domain, A model of The Image Degradation /Restoration, Noise Models and basic methods for image restoration.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>analyze the big data under spark architecture</t>
+          <t>develop proficiency in image enhancement and segmentation</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.5268136892435387</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>0.3509950511201284</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>develop</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>[]</t>
@@ -564,33 +568,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>parallel processing with mapreduce</t>
+          <t>image and video compression</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Introduction to MapReduce - Sample MapReduce application: Wordcount - MapReduce Data types and Formats - Writing MapReduce Programming - Testing MapReduce Programs - MapReduce Job Execution - Shuffle and Sort - Managing Failures - Progress and Status Updates. MapReduce Programs: Using languages other than Java with Hadoop, Analyzing a large dataset.</t>
+          <t>Fundamentals of Image Compression: Huffman Coding, Run length Coding, LZW Coding, Bit plane coding. Video Compression: Basic Concepts and Techniques of Video compression, MPEG-1 and MPEG-2 Video Standards.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>demonstrate an ability to use hadoop framework for processing big data for analytics</t>
+          <t>understand the fundamental principles of image and video analysis</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.08574466264484321</v>
+        <v>0.2286463650054271</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>demonstrateuseprocessing</t>
+          <t>understand</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
         </is>
       </c>
     </row>
@@ -605,33 +609,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>hive and pig</t>
+          <t>feature detection and description</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hive Architecture - Components - Data Definition - Partitioning - Data Manipulation - Joins, Views and Indexes - Hive Execution - Pig Architecture - Pig Latin Data Model - Latin Operators - Loading Data - Diagnostic Operators - Group Operators - Pig Joins - Row Level Operators - Pig Built-in function - User defined functions - Pig Scripts.</t>
+          <t>Introduction to feature detectors, Point, line and edge detection, Image Segmentation - Region Based Segmentation – Region Growing and Region Splitting and Merging, Thresholding – Basic global thresholding, optimum global thresholding using Otsu’s Method.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>demonstrate the programming of big data using hive and pig environments</t>
+          <t>develop skills in object detection and recognition</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.5247991960469408</v>
+        <v>0.1964929852033372</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>demonstrateusing</t>
+          <t>develop</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -646,26 +650,30 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>stream processing with spark</t>
+          <t>object detection and recognition</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Stream processing Models and Tools - Apache Spark - Spark Architecture: Resilient Distributed Datasets, Directed Acyclic Graph - Spark Ecosystem - Spark for Big Data Processing: MLlib, Spark GraphX, SparkR, SparkSQL, Spark Streaming - Spark versus Hadoop . PySpark + NumPy + SciPy, Code Optimization.</t>
+          <t>Descriptors: Boundary descriptors - Fourier descriptors - Regional descriptors Object detection and recognition in image and video: Minimum distance classifier, Applications in image and video analysis, object tracking in videos.</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>analyze the big data under spark architecture</t>
+          <t>develop skills in object detection and recognition</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.1959902092143908</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>0.6822268245187914</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>develop</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>[]</t>
